--- a/Screeners/FD2021-12.xlsx
+++ b/Screeners/FD2021-12.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-02" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-03" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -573,4 +574,80 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SNPS </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCS </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VRTX </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DRNA </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AAON </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Screeners/FD2021-12.xlsx
+++ b/Screeners/FD2021-12.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-02" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-03" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-07" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -650,4 +651,180 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTRE </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GRBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCS </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SIMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FAST </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DHI </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MDC </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MHO </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TPH </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PHM </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AAON </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> REXR </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AJG </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LEN </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Screeners/FD2021-12.xlsx
+++ b/Screeners/FD2021-12.xlsx
@@ -10,6 +10,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-02" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-03" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-07" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-08" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-09" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-10" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -827,4 +830,482 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SIMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CODI </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTRE </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AOSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AAON </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ODFL </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GRBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KEYS </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CIEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CARG </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COHR </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ON </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MDC </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IIVI </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> REXR </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TER </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KNX </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FAST </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SIMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CODI </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AAON </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AOSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCS </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> REXR </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNH </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TREX </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KEYS </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CIEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVS </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AOSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CODI </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NOK </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCS </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MHO </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FDS </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MDC </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Screeners/FD2021-12.xlsx
+++ b/Screeners/FD2021-12.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-08" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-09" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-10" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-12" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1308,4 +1309,150 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COST </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CIEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CODI </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVS </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MLM </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COHR </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GRBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DHI </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTAS </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IIVI </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MDC </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Screeners/FD2021-12.xlsx
+++ b/Screeners/FD2021-12.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-09" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-10" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-12" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-14" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1455,4 +1456,180 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CIEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FAST </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATO </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WPC </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTAS </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DHI </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIMX </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACN </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KEYS </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MDC </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MTH </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DEA </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BDX </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Screeners/FD2021-12.xlsx
+++ b/Screeners/FD2021-12.xlsx
@@ -15,6 +15,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-10" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-12" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-14" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-15" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-151" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -582,6 +584,102 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CIEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATO </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KNSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVS </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MLM </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1632,4 +1730,100 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CIEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATO </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KNSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVS </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MLM </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Screeners/FD2021-12.xlsx
+++ b/Screeners/FD2021-12.xlsx
@@ -17,6 +17,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-14" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-15" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-151" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-16" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -680,6 +681,132 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IIVI </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNH </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATO </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COST </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NOK </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KNSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DEA </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QNST </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Screeners/FD2021-12.xlsx
+++ b/Screeners/FD2021-12.xlsx
@@ -18,6 +18,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-15" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-151" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-16" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-17" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-19" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-21" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -807,6 +810,354 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACN </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATO </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INFY </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNH </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TER </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KNSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVS </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IIVI </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SNPS </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BDX </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COST </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EL </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VRTX </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DEA </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRNO </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FDS </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NX </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FDX </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KNSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VRTX </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIMX </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BDX </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AKAM </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
